--- a/pred_ohlcv/54_21/2020-01-22 FCT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 FCT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>8331692.063847932</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>8331708.063847932</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>8323835.212647932</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>8319146.667347931</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>8319146.667347931</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>8319146.667347931</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>8319146.667347931</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>8319146.667347931</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>8319146.667347931</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -704,7 +704,7 @@
         <v>8319146.667347931</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>8319146.667347931</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -834,7 +834,7 @@
         <v>8277654.281247931</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>8292307.527747931</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>8282102.67724793</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>7818551.52350809</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>7819551.52350809</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>7819088.856008089</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>7919457.500273569</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>7768532.62567357</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>7816505.03347357</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>7816505.03347357</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>7816505.03347357</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>7816505.03347357</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>7831635.56147357</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>7816480.013973569</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>7803857.730073569</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>7887007.64377357</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>7887007.64377357</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>1915128.30057357</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>2188670.06807357</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>2187225.05217357</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>2170078.67657357</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>2170078.67657357</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>1742673.93267357</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>2076649.731773569</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>2010169.408173569</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>2006733.116973569</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>1873102.373373569</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>1503599.116973569</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>1696613.763173569</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>1695312.950173569</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>1695312.950173569</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>1695312.950173569</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>1695312.950173569</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>1600843.315773569</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>1600863.315773569</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>1602220.891273569</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>1396245.197073569</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>1362369.381473569</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-22 FCT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 FCT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>8331692.063847932</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>8331708.063847932</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>8323835.212647932</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>8319146.667347931</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>8319146.667347931</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -704,7 +704,7 @@
         <v>8319146.667347931</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -834,7 +834,7 @@
         <v>8277654.281247931</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>8292307.527747931</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>8284696.786747931</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>8282102.67724793</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>8299291.74484793</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>8035166.79124793</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>7905221.00084793</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>7813802.08724793</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>7818551.52350809</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>7819551.52350809</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>7819551.52350809</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>7819551.52350809</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>7819088.856008089</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>7878414.79380809</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>7856977.95860809</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>7859628.40680809</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>7854756.594208091</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>7919457.500273569</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>7874805.91727357</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>7768532.62567357</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>7768532.62567357</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>7816505.03347357</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>7816505.03347357</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>7816505.03347357</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>7803857.730073569</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>7868545.23787357</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>7868545.23787357</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>7845525.64377357</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>7887007.64377357</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>7887007.64377357</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>1915128.30057357</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>2188670.06807357</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>2187225.05217357</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>2170078.67657357</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>2170078.67657357</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>1742673.93267357</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>2076649.731773569</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>2010169.408173569</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>2006733.116973569</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>1873102.373373569</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>1503599.116973569</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>1696613.763173569</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>1695312.950173569</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>1695312.950173569</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>1695312.950173569</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>1695312.950173569</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>1600843.315773569</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>1600843.315773569</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>1602239.891273569</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>1607547.690273569</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>1606955.780673569</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>1582433.485273569</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>1396245.197073569</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>1391150.480873569</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>1362137.665273569</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>1362369.381473569</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>1362369.381473569</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>1362369.381473569</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>1374239.468273569</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>1361336.443773569</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>1362517.578273569</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>1350484.299773569</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>1350484.299773569</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>3313595.247973569</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>3463290.702255387</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
